--- a/data/case1/5/Qlm1_5.xlsx
+++ b/data/case1/5/Qlm1_5.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.26156967784687879</v>
+        <v>-0.28905232522894408</v>
       </c>
       <c r="B1" s="0">
-        <v>0.26101523622958211</v>
+        <v>0.28839074427983036</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.20471821991721306</v>
+        <v>-0.21940476703057499</v>
       </c>
       <c r="B2" s="0">
-        <v>0.20304603312466174</v>
+        <v>0.2175548554550879</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.085329206918688172</v>
+        <v>-0.10428954387691824</v>
       </c>
       <c r="B3" s="0">
-        <v>0.085213445835652379</v>
+        <v>0.10405723213216689</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.077213445903328903</v>
+        <v>-0.096057232240847057</v>
       </c>
       <c r="B4" s="0">
-        <v>0.076983828485104766</v>
+        <v>0.095642728751487383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.073983828523703998</v>
+        <v>-0.092642728817270203</v>
       </c>
       <c r="B5" s="0">
-        <v>0.073224114039664556</v>
+        <v>0.091236981951594132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.023163262751230818</v>
+        <v>-0.021895163609949364</v>
       </c>
       <c r="B6" s="0">
-        <v>0.023020675023348147</v>
+        <v>0.021759204621673689</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.013020675114599811</v>
+        <v>-0.011759204771774279</v>
       </c>
       <c r="B7" s="0">
-        <v>0.013000024482383576</v>
+        <v>0.011740345244322103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.003000024574628668</v>
+        <v>-0.0017403453958841908</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0029897614945637585</v>
+        <v>0.0017321242726393571</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.00098976153587804205</v>
+        <v>0.0002678756529341797</v>
       </c>
       <c r="B9" s="0">
-        <v>0.00098653939774928645</v>
+        <v>-0.00027002326057479209</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.027404280277778525</v>
+        <v>0.0022700231859662523</v>
       </c>
       <c r="B10" s="0">
-        <v>0.027389173628463936</v>
+        <v>-0.0022693253011407677</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.02438917367692639</v>
+        <v>-0.024391975436556024</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024363168011120706</v>
+        <v>0.02436609802563261</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020863168063722348</v>
+        <v>-0.020866098116241627</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020669720955993398</v>
+        <v>0.020670606655807333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017169721012245454</v>
+        <v>-0.017170606752840989</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017081711279499423</v>
+        <v>0.017081938209120295</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090817113657877258</v>
+        <v>-0.0090819383515805541</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090530597360745091</v>
+        <v>0.0090532853230973487</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080530597780317237</v>
+        <v>-0.0080532853984873753</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080345644013499751</v>
+        <v>0.0080348042376563455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060345644504233853</v>
+        <v>-0.0060348043237565818</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060034040597773952</v>
+        <v>0.0060032694834024625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040034041098202522</v>
+        <v>-0.0040032695709157906</v>
       </c>
       <c r="B17" s="0">
-        <v>0.003999999936816323</v>
+        <v>0.0039999998927822134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0502970163532801</v>
+        <v>-0.062985977311640795</v>
       </c>
       <c r="B18" s="0">
-        <v>0.050204028490004049</v>
+        <v>0.06284180144499274</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.046204028518807672</v>
+        <v>-0.012091402451409827</v>
       </c>
       <c r="B19" s="0">
-        <v>0.045525465030264556</v>
+        <v>0.012016186499252957</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080168061483600894</v>
+        <v>-0.0080161865471435334</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080057330101848123</v>
+        <v>0.0080056369229382085</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057330468403762</v>
+        <v>-0.0040056369713292739</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999631135097</v>
+        <v>0.0039999999514481743</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.06294849126790858</v>
+        <v>-0.10926531164227526</v>
       </c>
       <c r="B22" s="0">
-        <v>0.062546077198456729</v>
+        <v>0.10853883506624218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.057546077246595218</v>
+        <v>-0.040506526979043223</v>
       </c>
       <c r="B23" s="0">
-        <v>0.056747913989386944</v>
+        <v>0.040100360756325948</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020100600868407703</v>
+        <v>-0.02010036099058965</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999847770233</v>
+        <v>0.019999999762687182</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.048060851327630161</v>
+        <v>-0.060980535368511113</v>
       </c>
       <c r="B25" s="0">
-        <v>0.048034105797675863</v>
+        <v>0.060935673354642006</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.045534105841047889</v>
+        <v>-0.058435673432754243</v>
       </c>
       <c r="B26" s="0">
-        <v>0.045501995177522403</v>
+        <v>0.058379866357640253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.043001995222211153</v>
+        <v>-0.055879866438323766</v>
       </c>
       <c r="B27" s="0">
-        <v>0.042824401007555579</v>
+        <v>0.055558808119975822</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.040824401054321058</v>
+        <v>-0.053558808208283182</v>
       </c>
       <c r="B28" s="0">
-        <v>0.040715421985314748</v>
+        <v>0.053352360235045637</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.033715422067927214</v>
+        <v>-0.046352360380783608</v>
       </c>
       <c r="B29" s="0">
-        <v>0.033693145248714806</v>
+        <v>0.046303240102371745</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.026306854326294538</v>
+        <v>-0.021169946952621643</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.026354466664658016</v>
+        <v>0.021022058271720656</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.033354466583014997</v>
+        <v>-0.014022058426126804</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.03339136376411922</v>
+        <v>0.014000785737287913</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.043391363664277094</v>
+        <v>-0.0040007859215265285</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.043521848904214622</v>
+        <v>0.0039999998740185561</v>
       </c>
     </row>
   </sheetData>
